--- a/biology/Botanique/Collet_(botanique)/Collet_(botanique).xlsx
+++ b/biology/Botanique/Collet_(botanique)/Collet_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le collet est une partie de la plante qui est comprise entre la tige et les racines. En termes plus techniques, il s'agit de la zone de transition entre le système racinaire et la tige feuillée des Trachéophytes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le collet est une partie de la plante qui est comprise entre la tige et les racines. En termes plus techniques, il s'agit de la zone de transition entre le système racinaire et la tige feuillée des Trachéophytes.
 Cette délimitation entre le système aérien (partie florale &amp; partie foliaire) et le système souterrain (partie racinaire) présente la délimitation des deux systèmes de la plante. Chez certains végétaux, comme chez les carottes, le collet est très visible puisqu'il est coloré en noir.
 </t>
         </is>
